--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_020_FuturesConvAdjQuotes.xlsx
@@ -11,9 +11,6 @@
     <sheet name="1M" sheetId="14" r:id="rId2"/>
     <sheet name="3M" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FamilyName">'General Settings'!$D$15</definedName>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Currency</t>
   </si>
@@ -114,6 +111,9 @@
   <si>
     <t>1M</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +128,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -557,22 +557,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -867,7 +851,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
@@ -879,13 +863,13 @@
     <col min="8" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="36" t="s">
         <v>7</v>
@@ -894,14 +878,14 @@
       <c r="D2" s="37"/>
       <c r="E2" s="38"/>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
@@ -910,7 +894,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="9" t="s">
@@ -921,7 +905,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
@@ -932,7 +916,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="9" t="s">
@@ -943,19 +927,18 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
@@ -966,15 +949,15 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>13</v>
       </c>
@@ -982,13 +965,13 @@
       <c r="D12" s="40"/>
       <c r="E12" s="41"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
         <v>0</v>
@@ -998,7 +981,7 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
         <v>20</v>
@@ -1008,7 +991,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -1018,7 +1001,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="9" t="s">
         <v>14</v>
@@ -1028,7 +1011,7 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
@@ -1038,7 +1021,7 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="12" thickBot="1">
+    <row r="19" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1073,7 +1056,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="31" bestFit="1" customWidth="1"/>
@@ -1086,7 +1069,7 @@
     <col min="9" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
@@ -1095,7 +1078,7 @@
         <v>UsdHW_Volatility_Quote</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1087,7 @@
         <v>UsdHW_MeanReversion_Quote</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E4" s="22" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5">
+    <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="26" t="s">
         <v>1</v>
@@ -1134,16 +1117,16 @@
         <f>Currency&amp;"_020_Futures"&amp;G4&amp;"ConvAdj.xml"</f>
         <v>USD_020_Futures1MConvAdj.xml</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="28" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="29" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="24">
         <v>1</v>
@@ -1172,7 +1155,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="25">
         <v>2</v>
@@ -1200,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="25">
         <v>3</v>
@@ -1228,7 +1211,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="25">
         <v>4</v>
@@ -1256,7 +1239,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="25">
         <v>5</v>
@@ -1284,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="25">
         <v>6</v>
@@ -1312,7 +1295,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="25">
         <v>7</v>
@@ -1340,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="25">
         <v>8</v>
@@ -1368,7 +1351,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="25">
         <v>9</v>
@@ -1396,7 +1379,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="25">
         <v>10</v>
@@ -1424,7 +1407,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="25">
         <v>11</v>
@@ -1452,7 +1435,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="25">
         <v>12</v>
@@ -1480,7 +1463,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="25">
         <v>13</v>
@@ -1508,7 +1491,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="25">
         <v>14</v>
@@ -1536,7 +1519,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="25">
         <v>15</v>
@@ -1564,7 +1547,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="25">
         <v>16</v>
@@ -1592,7 +1575,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="25">
         <v>17</v>
@@ -1620,7 +1603,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="25">
         <v>18</v>
@@ -1648,7 +1631,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="25">
         <v>19</v>
@@ -1676,7 +1659,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="25">
         <v>20</v>
@@ -1704,7 +1687,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="25">
         <v>21</v>
@@ -1732,7 +1715,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="25">
         <v>22</v>
@@ -1760,7 +1743,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="25">
         <v>23</v>
@@ -1788,7 +1771,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="25">
         <v>24</v>
@@ -1816,7 +1799,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="25">
         <v>25</v>
@@ -1844,7 +1827,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="25">
         <v>26</v>
@@ -1872,7 +1855,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="25">
         <v>27</v>
@@ -1900,7 +1883,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="25">
         <v>28</v>
@@ -1928,7 +1911,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="25">
         <v>29</v>
@@ -1956,7 +1939,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="25">
         <v>30</v>
@@ -1984,7 +1967,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="25">
         <v>31</v>
@@ -2012,7 +1995,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="25">
         <v>32</v>
@@ -2040,7 +2023,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="25">
         <v>33</v>
@@ -2068,7 +2051,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="25">
         <v>34</v>
@@ -2096,7 +2079,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="25">
         <v>35</v>
@@ -2124,7 +2107,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="25">
         <v>36</v>
@@ -2152,7 +2135,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="25">
         <v>37</v>
@@ -2180,7 +2163,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="25">
         <v>38</v>
@@ -2208,7 +2191,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="25">
         <v>39</v>
@@ -2236,7 +2219,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="25">
         <v>40</v>
@@ -2264,7 +2247,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="25">
         <v>41</v>
@@ -2292,7 +2275,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="25">
         <v>42</v>
@@ -2320,7 +2303,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="25">
         <v>43</v>
@@ -2348,7 +2331,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="25">
         <v>44</v>
@@ -2376,7 +2359,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="25">
         <v>45</v>
@@ -2404,7 +2387,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="25">
         <v>46</v>
@@ -2432,7 +2415,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="25">
         <v>47</v>
@@ -2460,7 +2443,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="25">
         <v>48</v>
@@ -2488,7 +2471,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="25">
         <v>49</v>
@@ -2516,7 +2499,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="25">
         <v>50</v>
@@ -2544,7 +2527,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="25">
         <v>51</v>
@@ -2572,7 +2555,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="25">
         <v>52</v>
@@ -2600,7 +2583,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="25">
         <v>53</v>
@@ -2628,7 +2611,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="25">
         <v>54</v>
@@ -2656,7 +2639,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="25">
         <v>55</v>
@@ -2684,7 +2667,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="25">
         <v>56</v>
@@ -2712,7 +2695,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="25">
         <v>57</v>
@@ -2740,7 +2723,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="25">
         <v>58</v>
@@ -2768,7 +2751,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="25">
         <v>59</v>
@@ -2796,7 +2779,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="25">
         <v>60</v>
@@ -2824,7 +2807,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="25">
         <v>61</v>
@@ -2852,7 +2835,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="25">
         <v>62</v>
@@ -2880,7 +2863,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="25">
         <v>63</v>
@@ -2908,7 +2891,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="25">
         <v>64</v>
@@ -2936,7 +2919,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="25">
         <v>65</v>
@@ -2964,7 +2947,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="25">
         <v>66</v>
@@ -2992,7 +2975,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="25">
         <v>67</v>
@@ -3020,7 +3003,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="25">
         <v>68</v>
@@ -3048,7 +3031,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="25">
         <v>69</v>
@@ -3076,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="25">
         <v>70</v>
@@ -3104,7 +3087,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="25">
         <v>71</v>
@@ -3132,7 +3115,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="25">
         <v>72</v>
@@ -3160,7 +3143,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="25">
         <v>73</v>
@@ -3188,7 +3171,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="25">
         <v>74</v>
@@ -3216,7 +3199,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="25">
         <v>75</v>
@@ -3244,7 +3227,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="25">
         <v>76</v>
@@ -3272,7 +3255,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="25">
         <v>77</v>
@@ -3300,7 +3283,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="25">
         <v>78</v>
@@ -3328,7 +3311,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="33"/>
       <c r="B85" s="25">
         <v>79</v>
@@ -3356,7 +3339,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="25">
         <v>80</v>
@@ -3384,7 +3367,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="33"/>
       <c r="B87" s="25">
         <v>81</v>
@@ -3412,7 +3395,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="25">
         <v>82</v>
@@ -3440,7 +3423,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="25">
         <v>83</v>
@@ -3468,7 +3451,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="25">
         <v>84</v>
@@ -3496,7 +3479,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="25">
         <v>85</v>
@@ -3524,7 +3507,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="25">
         <v>86</v>
@@ -3552,7 +3535,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="25">
         <v>87</v>
@@ -3580,7 +3563,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="25">
         <v>88</v>
@@ -3608,7 +3591,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="33"/>
       <c r="B95" s="25">
         <v>89</v>
@@ -3636,7 +3619,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="25">
         <v>90</v>
@@ -3664,7 +3647,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="25">
         <v>91</v>
@@ -3692,7 +3675,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="25">
         <v>92</v>
@@ -3720,7 +3703,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="25">
         <v>93</v>
@@ -3748,7 +3731,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="25">
         <v>94</v>
@@ -3776,7 +3759,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
       <c r="B101" s="25">
         <v>95</v>
@@ -3804,7 +3787,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="25">
         <v>96</v>
@@ -3832,7 +3815,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="33"/>
       <c r="B103" s="25">
         <v>97</v>
@@ -3860,7 +3843,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="25">
         <v>98</v>
@@ -3888,7 +3871,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="33"/>
       <c r="B105" s="25">
         <v>99</v>
@@ -3916,7 +3899,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="25">
         <v>100</v>
@@ -3944,7 +3927,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="25">
         <v>101</v>
@@ -3972,7 +3955,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="25">
         <v>102</v>
@@ -4000,7 +3983,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="33"/>
       <c r="B109" s="25">
         <v>103</v>
@@ -4028,7 +4011,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="25">
         <v>104</v>
@@ -4056,7 +4039,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="25">
         <v>105</v>
@@ -4084,7 +4067,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="25">
         <v>106</v>
@@ -4112,7 +4095,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="33"/>
       <c r="B113" s="25">
         <v>107</v>
@@ -4140,7 +4123,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="33"/>
       <c r="B114" s="25">
         <v>108</v>
@@ -4168,7 +4151,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="33"/>
       <c r="B115" s="25">
         <v>109</v>
@@ -4196,7 +4179,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="33"/>
       <c r="B116" s="25">
         <v>110</v>
@@ -4224,7 +4207,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="33"/>
       <c r="B117" s="25">
         <v>111</v>
@@ -4252,7 +4235,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="25">
         <v>112</v>
@@ -4280,7 +4263,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="33"/>
       <c r="B119" s="25">
         <v>113</v>
@@ -4308,7 +4291,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="33"/>
       <c r="B120" s="25">
         <v>114</v>
@@ -4336,7 +4319,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="33"/>
       <c r="B121" s="25">
         <v>115</v>
@@ -4364,7 +4347,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="33"/>
       <c r="B122" s="25">
         <v>116</v>
@@ -4392,7 +4375,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="33"/>
       <c r="B123" s="25">
         <v>117</v>
@@ -4420,7 +4403,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="33"/>
       <c r="B124" s="25">
         <v>118</v>
@@ -4448,7 +4431,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="33"/>
       <c r="B125" s="25">
         <v>119</v>
@@ -4476,7 +4459,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="12" thickBot="1">
+    <row r="126" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
       <c r="B126" s="25">
         <v>120</v>
@@ -4521,7 +4504,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="31" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="31" bestFit="1" customWidth="1"/>
@@ -4534,7 +4517,7 @@
     <col min="9" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
@@ -4543,7 +4526,7 @@
         <v>UsdHW_Volatility_Quote</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3" s="22" t="s">
         <v>18</v>
       </c>
@@ -4552,7 +4535,7 @@
         <v>UsdHW_MeanReversion_Quote</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E4" s="22" t="s">
         <v>16</v>
       </c>
@@ -4564,7 +4547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5">
+    <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="26" t="s">
         <v>1</v>
@@ -4582,16 +4565,16 @@
         <f>Currency&amp;"_020_Futures"&amp;G4&amp;"ConvAdj.xml"</f>
         <v>USD_020_Futures3MConvAdj.xml</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="28" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="29" t="str">
-        <f>_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="24">
         <v>1</v>
@@ -4620,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="25">
         <v>2</v>
@@ -4648,7 +4631,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="25">
         <v>3</v>
@@ -4676,7 +4659,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="25">
         <v>4</v>
@@ -4704,7 +4687,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="25">
         <v>5</v>
@@ -4732,7 +4715,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="25">
         <v>6</v>
@@ -4760,7 +4743,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="25">
         <v>7</v>
@@ -4788,7 +4771,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="25">
         <v>8</v>
@@ -4816,7 +4799,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="25">
         <v>9</v>
@@ -4844,7 +4827,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="25">
         <v>10</v>
@@ -4872,7 +4855,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="25">
         <v>11</v>
@@ -4900,7 +4883,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="25">
         <v>12</v>
@@ -4928,7 +4911,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="25">
         <v>13</v>
@@ -4956,7 +4939,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="25">
         <v>14</v>
@@ -4984,7 +4967,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="25">
         <v>15</v>
@@ -5012,7 +4995,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="25">
         <v>16</v>
@@ -5040,7 +5023,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="25">
         <v>17</v>
@@ -5068,7 +5051,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="25">
         <v>18</v>
@@ -5096,7 +5079,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="25">
         <v>19</v>
@@ -5124,7 +5107,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="25">
         <v>20</v>
@@ -5152,7 +5135,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="25">
         <v>21</v>
@@ -5180,7 +5163,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="25">
         <v>22</v>
@@ -5208,7 +5191,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="25">
         <v>23</v>
@@ -5236,7 +5219,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="25">
         <v>24</v>
@@ -5264,7 +5247,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="25">
         <v>25</v>
@@ -5292,7 +5275,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="33"/>
       <c r="B32" s="25">
         <v>26</v>
@@ -5320,7 +5303,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="25">
         <v>27</v>
@@ -5348,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="25">
         <v>28</v>
@@ -5376,7 +5359,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="25">
         <v>29</v>
@@ -5404,7 +5387,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="25">
         <v>30</v>
@@ -5432,7 +5415,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="25">
         <v>31</v>
@@ -5460,7 +5443,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="25">
         <v>32</v>
@@ -5488,7 +5471,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="25">
         <v>33</v>
@@ -5516,7 +5499,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="25">
         <v>34</v>
@@ -5544,7 +5527,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="25">
         <v>35</v>
@@ -5572,7 +5555,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="25">
         <v>36</v>
@@ -5600,7 +5583,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="25">
         <v>37</v>
@@ -5628,7 +5611,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="25">
         <v>38</v>
@@ -5656,7 +5639,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="25">
         <v>39</v>
@@ -5684,7 +5667,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="25">
         <v>40</v>
@@ -5712,7 +5695,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="25">
         <v>41</v>
@@ -5740,7 +5723,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="25">
         <v>42</v>
@@ -5768,7 +5751,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="25">
         <v>43</v>
@@ -5796,7 +5779,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="25">
         <v>44</v>
@@ -5824,7 +5807,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="25">
         <v>45</v>
@@ -5852,7 +5835,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="25">
         <v>46</v>
@@ -5880,7 +5863,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="25">
         <v>47</v>
@@ -5908,7 +5891,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="25">
         <v>48</v>
@@ -5936,7 +5919,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="25">
         <v>49</v>
@@ -5964,7 +5947,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="25">
         <v>50</v>
@@ -5992,7 +5975,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="25">
         <v>51</v>
@@ -6020,7 +6003,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="25">
         <v>52</v>
@@ -6048,7 +6031,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="25">
         <v>53</v>
@@ -6076,7 +6059,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="25">
         <v>54</v>
@@ -6104,7 +6087,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="25">
         <v>55</v>
@@ -6132,7 +6115,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="25">
         <v>56</v>
@@ -6160,7 +6143,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="25">
         <v>57</v>
@@ -6188,7 +6171,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="25">
         <v>58</v>
@@ -6216,7 +6199,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="25">
         <v>59</v>
@@ -6244,7 +6227,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="25">
         <v>60</v>
@@ -6272,7 +6255,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="25">
         <v>61</v>
@@ -6300,7 +6283,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="33"/>
       <c r="B68" s="25">
         <v>62</v>
@@ -6328,7 +6311,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="25">
         <v>63</v>
@@ -6356,7 +6339,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="25">
         <v>64</v>
@@ -6384,7 +6367,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="25">
         <v>65</v>
@@ -6412,7 +6395,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="33"/>
       <c r="B72" s="25">
         <v>66</v>
@@ -6440,7 +6423,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="33"/>
       <c r="B73" s="25">
         <v>67</v>
@@ -6468,7 +6451,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="33"/>
       <c r="B74" s="25">
         <v>68</v>
@@ -6496,7 +6479,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="25">
         <v>69</v>
@@ -6524,7 +6507,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="25">
         <v>70</v>
@@ -6552,7 +6535,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="25">
         <v>71</v>
@@ -6580,7 +6563,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="33"/>
       <c r="B78" s="25">
         <v>72</v>
@@ -6608,7 +6591,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="25">
         <v>73</v>
@@ -6636,7 +6619,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="25">
         <v>74</v>
@@ -6664,7 +6647,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="25">
         <v>75</v>
@@ -6692,7 +6675,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="33"/>
       <c r="B82" s="25">
         <v>76</v>
@@ -6720,7 +6703,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="33"/>
       <c r="B83" s="25">
         <v>77</v>
@@ -6748,7 +6731,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="33"/>
       <c r="B84" s="25">
         <v>78</v>
@@ -6776,7 +6759,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="33"/>
       <c r="B85" s="25">
         <v>79</v>
@@ -6804,7 +6787,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="25">
         <v>80</v>
@@ -6832,7 +6815,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="33"/>
       <c r="B87" s="25">
         <v>81</v>
@@ -6860,7 +6843,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="25">
         <v>82</v>
@@ -6888,7 +6871,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="25">
         <v>83</v>
@@ -6916,7 +6899,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="25">
         <v>84</v>
@@ -6944,7 +6927,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="25">
         <v>85</v>
@@ -6972,7 +6955,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="25">
         <v>86</v>
@@ -7000,7 +6983,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="25">
         <v>87</v>
@@ -7028,7 +7011,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="25">
         <v>88</v>
@@ -7056,7 +7039,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="33"/>
       <c r="B95" s="25">
         <v>89</v>
@@ -7084,7 +7067,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="25">
         <v>90</v>
@@ -7112,7 +7095,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="25">
         <v>91</v>
@@ -7140,7 +7123,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="25">
         <v>92</v>
@@ -7168,7 +7151,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="25">
         <v>93</v>
@@ -7196,7 +7179,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="25">
         <v>94</v>
@@ -7224,7 +7207,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
       <c r="B101" s="25">
         <v>95</v>
@@ -7252,7 +7235,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="25">
         <v>96</v>
@@ -7280,7 +7263,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="33"/>
       <c r="B103" s="25">
         <v>97</v>
@@ -7308,7 +7291,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="25">
         <v>98</v>
@@ -7336,7 +7319,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="33"/>
       <c r="B105" s="25">
         <v>99</v>
@@ -7364,7 +7347,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="25">
         <v>100</v>
@@ -7392,7 +7375,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="25">
         <v>101</v>
@@ -7420,7 +7403,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="25">
         <v>102</v>
@@ -7448,7 +7431,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="33"/>
       <c r="B109" s="25">
         <v>103</v>
@@ -7476,7 +7459,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="25">
         <v>104</v>
@@ -7504,7 +7487,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="33"/>
       <c r="B111" s="25">
         <v>105</v>
@@ -7532,7 +7515,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="33"/>
       <c r="B112" s="25">
         <v>106</v>
@@ -7560,7 +7543,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="33"/>
       <c r="B113" s="25">
         <v>107</v>
@@ -7588,7 +7571,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="33"/>
       <c r="B114" s="25">
         <v>108</v>
@@ -7616,7 +7599,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="33"/>
       <c r="B115" s="25">
         <v>109</v>
@@ -7644,7 +7627,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="33"/>
       <c r="B116" s="25">
         <v>110</v>
@@ -7672,7 +7655,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="33"/>
       <c r="B117" s="25">
         <v>111</v>
@@ -7700,7 +7683,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="33"/>
       <c r="B118" s="25">
         <v>112</v>
@@ -7728,7 +7711,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="33"/>
       <c r="B119" s="25">
         <v>113</v>
@@ -7756,7 +7739,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="33"/>
       <c r="B120" s="25">
         <v>114</v>
@@ -7784,7 +7767,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="33"/>
       <c r="B121" s="25">
         <v>115</v>
@@ -7812,7 +7795,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="33"/>
       <c r="B122" s="25">
         <v>116</v>
@@ -7840,7 +7823,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="33"/>
       <c r="B123" s="25">
         <v>117</v>
@@ -7868,7 +7851,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="33"/>
       <c r="B124" s="25">
         <v>118</v>
@@ -7896,7 +7879,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="33"/>
       <c r="B125" s="25">
         <v>119</v>
@@ -7924,7 +7907,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="12" thickBot="1">
+    <row r="126" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
       <c r="B126" s="25">
         <v>120</v>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_020_FuturesConvAdjQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_020_FuturesConvAdjQuotes.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Currency</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>1M</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -933,8 +930,9 @@
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
+      <c r="D8" s="12" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -1118,12 +1116,12 @@
         <v>USD_020_Futures1MConvAdj.xml</v>
       </c>
       <c r="G6" s="28" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="29" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="29" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4566,12 +4564,12 @@
         <v>USD_020_Futures3MConvAdj.xml</v>
       </c>
       <c r="G6" s="28" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="29" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G7:G126,SerializationPath&amp;F6,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="29" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(G6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
